--- a/Processed Results/Nexus 5X/GPS/GPS - Processed.xlsx
+++ b/Processed Results/Nexus 5X/GPS/GPS - Processed.xlsx
@@ -1,33 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luuk1\Desktop\Bachelor Project\BachelorProject\Processed Results\Mi 9T\GPS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luuk1\Desktop\Bachelor Project\BachelorProject\Processed Results\Nexus 5X\GPS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{685B1683-D9BF-4B1A-8983-41560DEE7C50}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4E8DA2E-69EB-48EC-B553-EEA6A09DCE04}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="100" windowWidth="9990" windowHeight="7360" xr2:uid="{BD96B59B-3C3E-42C2-91CD-DAE8785DB1E9}"/>
+    <workbookView xWindow="130" yWindow="120" windowWidth="9990" windowHeight="9830" xr2:uid="{BD96B59B-3C3E-42C2-91CD-DAE8785DB1E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Blad1!$A$98:$A$187</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Blad1!$B$98:$B$187</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Blad1!$B$33</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Blad1!$B$34:$B$63</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Blad1!$A$2:$A$31</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Blad1!$B$2:$B$31</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Blad1!$A$66:$A$95</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Blad1!$B$65</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Blad1!$B$66:$B$95</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Blad1!$A$98:$A$187</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Blad1!$B$98:$B$187</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Blad1!$A$34:$A$63</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Blad1!$A$34:$A$63</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Blad1!$B$33</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Blad1!$A$98:$A$187</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Blad1!$B$98:$B$187</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Blad1!$B$34:$B$63</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Blad1!$A$98:$A$187</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Blad1!$B$98:$B$187</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Blad1!$A$66:$A$95</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Blad1!$B$65</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Blad1!$B$66:$B$95</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Blad1!$A$2:$A$31</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Blad1!$B$2:$B$31</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -285,94 +285,94 @@
                 <c:formatCode>0.000000</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>100.08669599999899</c:v>
+                  <c:v>113.27525999999899</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>101.197008</c:v>
+                  <c:v>116.357579999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>98.659152000000006</c:v>
+                  <c:v>114.66230400000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>98.024687999999998</c:v>
+                  <c:v>114.970536</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>98.341920000000002</c:v>
+                  <c:v>114.199956</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>96.914375999999905</c:v>
+                  <c:v>115.278768</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>97.231607999999994</c:v>
+                  <c:v>115.89523199999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>97.707455999999993</c:v>
+                  <c:v>114.199956</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>96.914375999999905</c:v>
+                  <c:v>114.199956</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>98.341920000000002</c:v>
+                  <c:v>114.81641999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>97.707455999999993</c:v>
+                  <c:v>114.508187999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>98.817768000000001</c:v>
+                  <c:v>123.2928</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>97.707455999999993</c:v>
+                  <c:v>115.432884</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>97.390224000000003</c:v>
+                  <c:v>113.58349200000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>96.597144</c:v>
+                  <c:v>113.73760799999999</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>98.500535999999997</c:v>
+                  <c:v>114.199956</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>96.914375999999905</c:v>
+                  <c:v>114.66230400000001</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>97.707455999999993</c:v>
+                  <c:v>114.199956</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>96.914375999999905</c:v>
+                  <c:v>116.357579999999</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>97.231607999999994</c:v>
+                  <c:v>133.00210799999999</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>98.341920000000002</c:v>
+                  <c:v>114.35407199999899</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>97.707455999999993</c:v>
+                  <c:v>114.66230400000001</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>99.135000000000005</c:v>
+                  <c:v>115.741115999999</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>99.293615999999901</c:v>
+                  <c:v>114.35407199999899</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>97.390224000000003</c:v>
+                  <c:v>113.891724</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>97.231607999999994</c:v>
+                  <c:v>113.891724</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>97.707455999999993</c:v>
+                  <c:v>114.508187999999</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>97.548839999999998</c:v>
+                  <c:v>113.891724</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>98.976383999999996</c:v>
+                  <c:v>113.27525999999899</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>97.548839999999998</c:v>
+                  <c:v>114.199956</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -456,10 +456,10 @@
                 <c:formatCode>0.000000</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>97.992964799999982</c:v>
+                  <c:v>115.4534327999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>97.992964799999982</c:v>
+                  <c:v>115.4534327999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -920,94 +920,94 @@
                 <c:formatCode>0.000000</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>97.496424000000005</c:v>
+                  <c:v>114.97082399999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>98.450711999999996</c:v>
+                  <c:v>117.633636</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>99.245952000000003</c:v>
+                  <c:v>134.23705200000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>98.291663999999997</c:v>
+                  <c:v>135.49014</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>98.132615999999999</c:v>
+                  <c:v>134.70695999999899</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>99.564048</c:v>
+                  <c:v>133.92377999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>98.768807999999893</c:v>
+                  <c:v>134.863596</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>97.973568</c:v>
+                  <c:v>135.17686800000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>98.768807999999893</c:v>
+                  <c:v>134.70695999999899</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>97.814520000000002</c:v>
+                  <c:v>135.02023199999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>97.814520000000002</c:v>
+                  <c:v>135.64677599999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>98.450711999999996</c:v>
+                  <c:v>129.69460799999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>97.973568</c:v>
+                  <c:v>134.55032399999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>97.496424000000005</c:v>
+                  <c:v>134.863596</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>99.086904000000004</c:v>
+                  <c:v>134.23705200000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>97.496424000000005</c:v>
+                  <c:v>134.863596</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>98.450711999999996</c:v>
+                  <c:v>134.23705200000001</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>97.655471999999904</c:v>
+                  <c:v>135.49014</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>97.973568</c:v>
+                  <c:v>134.863596</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>98.450711999999996</c:v>
+                  <c:v>136.586592</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>99.245952000000003</c:v>
+                  <c:v>135.49014</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>98.450711999999996</c:v>
+                  <c:v>135.17686800000001</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>97.019279999999995</c:v>
+                  <c:v>124.838892</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>98.291663999999997</c:v>
+                  <c:v>135.80341200000001</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>98.132615999999999</c:v>
+                  <c:v>134.70695999999899</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>97.973568</c:v>
+                  <c:v>134.23705200000001</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>97.019279999999995</c:v>
+                  <c:v>134.863596</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>97.973568</c:v>
+                  <c:v>135.33350399999901</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>100.20023999999999</c:v>
+                  <c:v>135.64677599999999</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>98.609759999999994</c:v>
+                  <c:v>134.23705200000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1059,10 +1059,10 @@
                 <c:formatCode>0.000000</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>98.275759199999982</c:v>
+                  <c:v>133.20325439999988</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>98.275759199999982</c:v>
+                  <c:v>133.20325439999988</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1611,94 +1611,94 @@
                 <c:formatCode>0.000000</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>100.70017199999999</c:v>
+                  <c:v>159.89651999999899</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>99.904752000000002</c:v>
+                  <c:v>176.33448000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>99.745667999999895</c:v>
+                  <c:v>162.88523999999899</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>98.791163999999995</c:v>
+                  <c:v>162.88523999999899</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>98.632080000000002</c:v>
+                  <c:v>162.88523999999899</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>99.427499999999995</c:v>
+                  <c:v>162.88523999999899</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>97.359408000000002</c:v>
+                  <c:v>162.88523999999899</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>99.109331999999995</c:v>
+                  <c:v>162.88523999999899</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>99.586583999999903</c:v>
+                  <c:v>162.88523999999899</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>99.904752000000002</c:v>
+                  <c:v>162.88523999999899</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>98.313911999999902</c:v>
+                  <c:v>174.84011999999899</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>100.06383599999999</c:v>
+                  <c:v>159.89651999999899</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>97.836659999999995</c:v>
+                  <c:v>176.33448000000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>98.154827999999995</c:v>
+                  <c:v>174.84011999999899</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>97.995744000000002</c:v>
+                  <c:v>176.33448000000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>99.109331999999995</c:v>
+                  <c:v>176.33448000000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>97.677576000000002</c:v>
+                  <c:v>176.33448000000001</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>98.154827999999995</c:v>
+                  <c:v>176.33448000000001</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>98.313911999999902</c:v>
+                  <c:v>176.33448000000001</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>99.268416000000002</c:v>
+                  <c:v>176.33448000000001</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>98.791163999999995</c:v>
+                  <c:v>176.33448000000001</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>99.268416000000002</c:v>
+                  <c:v>176.33448000000001</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>99.427499999999995</c:v>
+                  <c:v>180.81755999999999</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>98.472995999999995</c:v>
+                  <c:v>179.32320000000001</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>98.313911999999902</c:v>
+                  <c:v>176.33448000000001</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>99.745667999999895</c:v>
+                  <c:v>174.84011999999899</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>98.313911999999902</c:v>
+                  <c:v>174.84011999999899</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>99.427499999999995</c:v>
+                  <c:v>189.78371999999999</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>97.836659999999995</c:v>
+                  <c:v>191.27807999999999</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>98.632080000000002</c:v>
+                  <c:v>191.27807999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1750,10 +1750,10 @@
                 <c:formatCode>0.000000</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>98.876008799999966</c:v>
+                  <c:v>173.14651199999952</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>98.876008799999966</c:v>
+                  <c:v>173.14651199999952</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2098,10 +2098,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.2</cx:f>
+        <cx:f>_xlchart.v1.8</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.3</cx:f>
+        <cx:f>_xlchart.v1.9</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -2177,7 +2177,7 @@
         <cx:tickLabels/>
       </cx:axis>
       <cx:axis id="1">
-        <cx:valScaling min="96"/>
+        <cx:valScaling max="135" min="110"/>
         <cx:title>
           <cx:tx>
             <cx:txData>
@@ -2220,10 +2220,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.7</cx:f>
+        <cx:f>_xlchart.v1.3</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.8</cx:f>
+        <cx:f>_xlchart.v1.4</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -2298,7 +2298,7 @@
         <cx:tickLabels/>
       </cx:axis>
       <cx:axis id="1">
-        <cx:valScaling/>
+        <cx:valScaling min="110"/>
         <cx:title>
           <cx:tx>
             <cx:txData>
@@ -2341,10 +2341,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.9</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.11</cx:f>
+        <cx:f>_xlchart.v1.2</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -2382,7 +2382,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{3F5A16A3-6E4C-4475-A634-1322A70DC713}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.10</cx:f>
+              <cx:f>_xlchart.v1.1</cx:f>
               <cx:v>Medium_frequency</cx:v>
             </cx:txData>
           </cx:tx>
@@ -2426,7 +2426,7 @@
         <cx:tickLabels/>
       </cx:axis>
       <cx:axis id="1">
-        <cx:valScaling max="100.5" min="96.5"/>
+        <cx:valScaling min="110"/>
         <cx:title>
           <cx:tx>
             <cx:txData>
@@ -2469,10 +2469,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.4</cx:f>
+        <cx:f>_xlchart.v1.5</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.6</cx:f>
+        <cx:f>_xlchart.v1.7</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -2510,7 +2510,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{138ACD3C-CAEA-4AEF-B3DF-B982F1EA92CC}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.5</cx:f>
+              <cx:f>_xlchart.v1.6</cx:f>
               <cx:v>High_frequency</cx:v>
             </cx:txData>
           </cx:tx>
@@ -2554,7 +2554,7 @@
         <cx:tickLabels/>
       </cx:axis>
       <cx:axis id="1">
-        <cx:valScaling max="101" min="97"/>
+        <cx:valScaling max="195" min="155"/>
         <cx:title>
           <cx:tx>
             <cx:txData>
@@ -7204,8 +7204,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78FE0459-F6C0-45BE-AD60-56F63431C3F0}">
   <dimension ref="A1:E187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A170" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B185" activeCellId="2" sqref="B187 B186 B98:B185"/>
+    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B99" activeCellId="1" sqref="B98 B99:B187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7228,7 +7228,7 @@
         <v>10</v>
       </c>
       <c r="B2" s="1">
-        <v>100.08669599999899</v>
+        <v>113.27525999999899</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>1</v>
@@ -7242,14 +7242,14 @@
         <v>10</v>
       </c>
       <c r="B3" s="1">
-        <v>101.197008</v>
+        <v>116.357579999999</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3" s="1">
         <f>AVERAGE(B2,B3,B4,B5,B6,B7,B8,B9,B10,B11,B12,B13,B14,B15,B16,B17,B18,B19,B21,B20,B22,B23,B24,B25,B26,B27,B28,B29,B30,B31)</f>
-        <v>97.992964799999982</v>
+        <v>115.4534327999997</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
@@ -7257,14 +7257,14 @@
         <v>10</v>
       </c>
       <c r="B4" s="1">
-        <v>98.659152000000006</v>
+        <v>114.66230400000001</v>
       </c>
       <c r="D4">
         <v>30</v>
       </c>
       <c r="E4" s="1">
         <f>AVERAGE(B2,B3,B4,B5,B6,B7,B8,B9,B10,B11,B12,B13,B14,B15,B16,B17,B18,B19,B21,B20,B22,B23,B24,B25,B26,B27,B28,B29,B30,B31)</f>
-        <v>97.992964799999982</v>
+        <v>115.4534327999997</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
@@ -7272,7 +7272,7 @@
         <v>10</v>
       </c>
       <c r="B5" s="1">
-        <v>98.024687999999998</v>
+        <v>114.970536</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
@@ -7280,7 +7280,7 @@
         <v>10</v>
       </c>
       <c r="B6" s="1">
-        <v>98.341920000000002</v>
+        <v>114.199956</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>3</v>
@@ -7294,15 +7294,15 @@
         <v>10</v>
       </c>
       <c r="B7" s="1">
-        <v>96.914375999999905</v>
+        <v>115.278768</v>
       </c>
       <c r="D7" s="1">
         <f>MIN(B2:B31)</f>
-        <v>96.597144</v>
+        <v>113.27525999999899</v>
       </c>
       <c r="E7" s="1">
         <f>MAX(B2:B31)</f>
-        <v>101.197008</v>
+        <v>133.00210799999999</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -7310,7 +7310,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="1">
-        <v>97.231607999999994</v>
+        <v>115.89523199999999</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -7318,7 +7318,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="1">
-        <v>97.707455999999993</v>
+        <v>114.199956</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>5</v>
@@ -7332,15 +7332,15 @@
         <v>10</v>
       </c>
       <c r="B10" s="1">
-        <v>96.914375999999905</v>
+        <v>114.199956</v>
       </c>
       <c r="D10">
         <f>QUARTILE(B2:B31, 1)</f>
-        <v>97.271261999999993</v>
+        <v>114.199956</v>
       </c>
       <c r="E10">
         <f>QUARTILE(B2:B31, 2)</f>
-        <v>97.707455999999993</v>
+        <v>114.431129999999</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
@@ -7348,7 +7348,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>98.341920000000002</v>
+        <v>114.81641999999999</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
@@ -7356,7 +7356,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>97.707455999999993</v>
+        <v>114.508187999999</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>7</v>
@@ -7370,15 +7370,15 @@
         <v>10</v>
       </c>
       <c r="B13" s="1">
-        <v>98.817768000000001</v>
+        <v>123.2928</v>
       </c>
       <c r="D13">
         <f>QUARTILE(B2:B31, 3)</f>
-        <v>98.460881999999998</v>
+        <v>115.20170999999999</v>
       </c>
       <c r="E13">
         <f xml:space="preserve"> D13 - D10</f>
-        <v>1.189620000000005</v>
+        <v>1.0017539999999912</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
@@ -7386,7 +7386,7 @@
         <v>10</v>
       </c>
       <c r="B14" s="1">
-        <v>97.707455999999993</v>
+        <v>115.432884</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
@@ -7394,7 +7394,7 @@
         <v>10</v>
       </c>
       <c r="B15" s="1">
-        <v>97.390224000000003</v>
+        <v>113.58349200000001</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>16</v>
@@ -7408,15 +7408,15 @@
         <v>10</v>
       </c>
       <c r="B16" s="1">
-        <v>96.597144</v>
+        <v>113.73760799999999</v>
       </c>
       <c r="D16">
         <f>STDEV(B2:B31)</f>
-        <v>1.0223638247975433</v>
+        <v>3.7634812806515914</v>
       </c>
       <c r="E16">
         <f xml:space="preserve"> (D16 / E4) * 100</f>
-        <v>1.0433032890515661</v>
+        <v>3.2597396104896079</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
@@ -7424,7 +7424,7 @@
         <v>10</v>
       </c>
       <c r="B17" s="1">
-        <v>98.500535999999997</v>
+        <v>114.199956</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
@@ -7432,7 +7432,7 @@
         <v>10</v>
       </c>
       <c r="B18" s="1">
-        <v>96.914375999999905</v>
+        <v>114.66230400000001</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
@@ -7440,7 +7440,7 @@
         <v>10</v>
       </c>
       <c r="B19" s="1">
-        <v>97.707455999999993</v>
+        <v>114.199956</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
@@ -7448,7 +7448,7 @@
         <v>10</v>
       </c>
       <c r="B20" s="1">
-        <v>96.914375999999905</v>
+        <v>116.357579999999</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
@@ -7456,7 +7456,7 @@
         <v>10</v>
       </c>
       <c r="B21" s="1">
-        <v>97.231607999999994</v>
+        <v>133.00210799999999</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
@@ -7464,7 +7464,7 @@
         <v>10</v>
       </c>
       <c r="B22" s="1">
-        <v>98.341920000000002</v>
+        <v>114.35407199999899</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
@@ -7472,7 +7472,7 @@
         <v>10</v>
       </c>
       <c r="B23" s="1">
-        <v>97.707455999999993</v>
+        <v>114.66230400000001</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
@@ -7480,7 +7480,7 @@
         <v>10</v>
       </c>
       <c r="B24" s="1">
-        <v>99.135000000000005</v>
+        <v>115.741115999999</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
@@ -7488,7 +7488,7 @@
         <v>10</v>
       </c>
       <c r="B25" s="1">
-        <v>99.293615999999901</v>
+        <v>114.35407199999899</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
@@ -7496,7 +7496,7 @@
         <v>10</v>
       </c>
       <c r="B26" s="1">
-        <v>97.390224000000003</v>
+        <v>113.891724</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
@@ -7504,7 +7504,7 @@
         <v>10</v>
       </c>
       <c r="B27" s="1">
-        <v>97.231607999999994</v>
+        <v>113.891724</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
@@ -7512,7 +7512,7 @@
         <v>10</v>
       </c>
       <c r="B28" s="1">
-        <v>97.707455999999993</v>
+        <v>114.508187999999</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
@@ -7520,7 +7520,7 @@
         <v>10</v>
       </c>
       <c r="B29" s="1">
-        <v>97.548839999999998</v>
+        <v>113.891724</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
@@ -7528,7 +7528,7 @@
         <v>10</v>
       </c>
       <c r="B30" s="1">
-        <v>98.976383999999996</v>
+        <v>113.27525999999899</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
@@ -7536,7 +7536,7 @@
         <v>10</v>
       </c>
       <c r="B31" s="1">
-        <v>97.548839999999998</v>
+        <v>114.199956</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
@@ -7555,7 +7555,7 @@
         <v>12</v>
       </c>
       <c r="B34" s="1">
-        <v>97.496424000000005</v>
+        <v>114.97082399999999</v>
       </c>
       <c r="D34" t="s">
         <v>1</v>
@@ -7569,14 +7569,14 @@
         <v>12</v>
       </c>
       <c r="B35" s="1">
-        <v>98.450711999999996</v>
+        <v>117.633636</v>
       </c>
       <c r="D35">
         <v>0</v>
       </c>
       <c r="E35" s="1">
         <f>AVERAGE(B34,B35,B36,B37,B38,B39,B40,B41,B42,B43,B44,B45,B46,B47,B48,B49,B50,B51,B53,B52,B54,B55,B56,B57,B58,B59,B60,B61,B62,B63)</f>
-        <v>98.275759199999982</v>
+        <v>133.20325439999988</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
@@ -7584,14 +7584,14 @@
         <v>12</v>
       </c>
       <c r="B36" s="1">
-        <v>99.245952000000003</v>
+        <v>134.23705200000001</v>
       </c>
       <c r="D36">
         <v>30</v>
       </c>
       <c r="E36" s="1">
         <f>AVERAGE(B34,B35,B36,B37,B38,B39,B40,B41,B42,B43,B44,B45,B46,B47,B48,B49,B50,B51,B53,B52,B54,B55,B56,B57,B58,B59,B60,B61,B62,B63)</f>
-        <v>98.275759199999982</v>
+        <v>133.20325439999988</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
@@ -7599,7 +7599,7 @@
         <v>12</v>
       </c>
       <c r="B37" s="1">
-        <v>98.291663999999997</v>
+        <v>135.49014</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
@@ -7607,7 +7607,7 @@
         <v>12</v>
       </c>
       <c r="B38" s="1">
-        <v>98.132615999999999</v>
+        <v>134.70695999999899</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>3</v>
@@ -7621,15 +7621,15 @@
         <v>12</v>
       </c>
       <c r="B39" s="1">
-        <v>99.564048</v>
+        <v>133.92377999999999</v>
       </c>
       <c r="D39" s="1">
         <f>MIN(B34:B63)</f>
-        <v>97.019279999999995</v>
+        <v>114.97082399999999</v>
       </c>
       <c r="E39" s="1">
         <f>MAX(B34:B63)</f>
-        <v>100.20023999999999</v>
+        <v>136.586592</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
@@ -7637,7 +7637,7 @@
         <v>12</v>
       </c>
       <c r="B40" s="1">
-        <v>98.768807999999893</v>
+        <v>134.863596</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
@@ -7645,7 +7645,7 @@
         <v>12</v>
       </c>
       <c r="B41" s="1">
-        <v>97.973568</v>
+        <v>135.17686800000001</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>5</v>
@@ -7659,15 +7659,15 @@
         <v>12</v>
       </c>
       <c r="B42" s="1">
-        <v>98.768807999999893</v>
+        <v>134.70695999999899</v>
       </c>
       <c r="D42">
         <f>QUARTILE(B34:B63, 1)</f>
-        <v>97.854281999999998</v>
+        <v>134.23705200000001</v>
       </c>
       <c r="E42">
         <f>QUARTILE(B34:B63, 2)</f>
-        <v>98.212140000000005</v>
+        <v>134.863596</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
@@ -7675,7 +7675,7 @@
         <v>12</v>
       </c>
       <c r="B43" s="1">
-        <v>97.814520000000002</v>
+        <v>135.02023199999999</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
@@ -7683,7 +7683,7 @@
         <v>12</v>
       </c>
       <c r="B44" s="1">
-        <v>97.814520000000002</v>
+        <v>135.64677599999999</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>7</v>
@@ -7697,15 +7697,15 @@
         <v>12</v>
       </c>
       <c r="B45" s="1">
-        <v>98.450711999999996</v>
+        <v>129.69460799999999</v>
       </c>
       <c r="D45">
         <f>QUARTILE(B34:B63, 3)</f>
-        <v>98.569997999999998</v>
+        <v>135.29434499999925</v>
       </c>
       <c r="E45">
         <f xml:space="preserve"> D45 - D42</f>
-        <v>0.71571600000000046</v>
+        <v>1.0572929999992482</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
@@ -7713,7 +7713,7 @@
         <v>12</v>
       </c>
       <c r="B46" s="1">
-        <v>97.973568</v>
+        <v>134.55032399999999</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
@@ -7721,7 +7721,7 @@
         <v>12</v>
       </c>
       <c r="B47" s="1">
-        <v>97.496424000000005</v>
+        <v>134.863596</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>16</v>
@@ -7735,15 +7735,15 @@
         <v>12</v>
       </c>
       <c r="B48" s="1">
-        <v>99.086904000000004</v>
+        <v>134.23705200000001</v>
       </c>
       <c r="D48">
         <f>STDEV(B34:B63)</f>
-        <v>0.71781527990223726</v>
+        <v>5.0746863163428069</v>
       </c>
       <c r="E48">
         <f xml:space="preserve"> (D48 / E36) * 100</f>
-        <v>0.73040929497315688</v>
+        <v>3.8097314808119371</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
@@ -7751,7 +7751,7 @@
         <v>12</v>
       </c>
       <c r="B49" s="1">
-        <v>97.496424000000005</v>
+        <v>134.863596</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
@@ -7759,7 +7759,7 @@
         <v>12</v>
       </c>
       <c r="B50" s="1">
-        <v>98.450711999999996</v>
+        <v>134.23705200000001</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
@@ -7767,7 +7767,7 @@
         <v>12</v>
       </c>
       <c r="B51" s="1">
-        <v>97.655471999999904</v>
+        <v>135.49014</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
@@ -7775,7 +7775,7 @@
         <v>12</v>
       </c>
       <c r="B52" s="1">
-        <v>97.973568</v>
+        <v>134.863596</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
@@ -7783,7 +7783,7 @@
         <v>12</v>
       </c>
       <c r="B53" s="1">
-        <v>98.450711999999996</v>
+        <v>136.586592</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
@@ -7791,7 +7791,7 @@
         <v>12</v>
       </c>
       <c r="B54" s="1">
-        <v>99.245952000000003</v>
+        <v>135.49014</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
@@ -7799,7 +7799,7 @@
         <v>12</v>
       </c>
       <c r="B55" s="1">
-        <v>98.450711999999996</v>
+        <v>135.17686800000001</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
@@ -7807,7 +7807,7 @@
         <v>12</v>
       </c>
       <c r="B56" s="1">
-        <v>97.019279999999995</v>
+        <v>124.838892</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
@@ -7815,7 +7815,7 @@
         <v>12</v>
       </c>
       <c r="B57" s="1">
-        <v>98.291663999999997</v>
+        <v>135.80341200000001</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
@@ -7823,7 +7823,7 @@
         <v>12</v>
       </c>
       <c r="B58" s="1">
-        <v>98.132615999999999</v>
+        <v>134.70695999999899</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
@@ -7831,7 +7831,7 @@
         <v>12</v>
       </c>
       <c r="B59" s="1">
-        <v>97.973568</v>
+        <v>134.23705200000001</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
@@ -7839,7 +7839,7 @@
         <v>12</v>
       </c>
       <c r="B60" s="1">
-        <v>97.019279999999995</v>
+        <v>134.863596</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
@@ -7847,7 +7847,7 @@
         <v>12</v>
       </c>
       <c r="B61" s="1">
-        <v>97.973568</v>
+        <v>135.33350399999901</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
@@ -7855,7 +7855,7 @@
         <v>12</v>
       </c>
       <c r="B62" s="1">
-        <v>100.20023999999999</v>
+        <v>135.64677599999999</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
@@ -7863,7 +7863,7 @@
         <v>12</v>
       </c>
       <c r="B63" s="1">
-        <v>98.609759999999994</v>
+        <v>134.23705200000001</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
@@ -7882,7 +7882,7 @@
         <v>14</v>
       </c>
       <c r="B66" s="1">
-        <v>100.70017199999999</v>
+        <v>159.89651999999899</v>
       </c>
       <c r="D66" t="s">
         <v>1</v>
@@ -7896,14 +7896,14 @@
         <v>14</v>
       </c>
       <c r="B67" s="1">
-        <v>99.904752000000002</v>
+        <v>176.33448000000001</v>
       </c>
       <c r="D67">
         <v>0</v>
       </c>
       <c r="E67" s="1">
         <f>AVERAGE(B66,B67,B68,B69,B70,B71,B72,B73,B74,B75,B76,B77,B78,B79,B80,B81,B82,B83,B85,B84,B86,B87,B88,B89,B90,B91,B92,B93,B94,B95)</f>
-        <v>98.876008799999966</v>
+        <v>173.14651199999952</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.35">
@@ -7911,14 +7911,14 @@
         <v>14</v>
       </c>
       <c r="B68" s="1">
-        <v>99.745667999999895</v>
+        <v>162.88523999999899</v>
       </c>
       <c r="D68">
         <v>30</v>
       </c>
       <c r="E68" s="1">
         <f>AVERAGE(B66,B67,B68,B69,B70,B71,B72,B73,B74,B75,B76,B77,B78,B79,B80,B81,B82,B83,B85,B84,B86,B87,B88,B89,B90,B91,B92,B93,B94,B95)</f>
-        <v>98.876008799999966</v>
+        <v>173.14651199999952</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.35">
@@ -7926,7 +7926,7 @@
         <v>14</v>
       </c>
       <c r="B69" s="1">
-        <v>98.791163999999995</v>
+        <v>162.88523999999899</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.35">
@@ -7934,7 +7934,7 @@
         <v>14</v>
       </c>
       <c r="B70" s="1">
-        <v>98.632080000000002</v>
+        <v>162.88523999999899</v>
       </c>
       <c r="D70" s="3" t="s">
         <v>3</v>
@@ -7948,15 +7948,15 @@
         <v>14</v>
       </c>
       <c r="B71" s="1">
-        <v>99.427499999999995</v>
+        <v>162.88523999999899</v>
       </c>
       <c r="D71" s="1">
         <f>MIN(B66:B95)</f>
-        <v>97.359408000000002</v>
+        <v>159.89651999999899</v>
       </c>
       <c r="E71" s="1">
         <f>MAX(B66:B95)</f>
-        <v>100.70017199999999</v>
+        <v>191.27807999999999</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.35">
@@ -7964,7 +7964,7 @@
         <v>14</v>
       </c>
       <c r="B72" s="1">
-        <v>97.359408000000002</v>
+        <v>162.88523999999899</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.35">
@@ -7972,7 +7972,7 @@
         <v>14</v>
       </c>
       <c r="B73" s="1">
-        <v>99.109331999999995</v>
+        <v>162.88523999999899</v>
       </c>
       <c r="D73" s="3" t="s">
         <v>5</v>
@@ -7986,15 +7986,15 @@
         <v>14</v>
       </c>
       <c r="B74" s="1">
-        <v>99.586583999999903</v>
+        <v>162.88523999999899</v>
       </c>
       <c r="D74">
         <f>QUARTILE(B66:B95, 1)</f>
-        <v>98.313911999999902</v>
+        <v>162.88523999999899</v>
       </c>
       <c r="E74">
         <f>QUARTILE(B66:B95, 2)</f>
-        <v>98.791163999999995</v>
+        <v>176.33448000000001</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.35">
@@ -8002,7 +8002,7 @@
         <v>14</v>
       </c>
       <c r="B75" s="1">
-        <v>99.904752000000002</v>
+        <v>162.88523999999899</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.35">
@@ -8010,7 +8010,7 @@
         <v>14</v>
       </c>
       <c r="B76" s="1">
-        <v>98.313911999999902</v>
+        <v>174.84011999999899</v>
       </c>
       <c r="D76" s="3" t="s">
         <v>7</v>
@@ -8024,15 +8024,15 @@
         <v>14</v>
       </c>
       <c r="B77" s="1">
-        <v>100.06383599999999</v>
+        <v>159.89651999999899</v>
       </c>
       <c r="D77">
         <f>QUARTILE(B66:B95, 3)</f>
-        <v>99.427499999999995</v>
+        <v>176.33448000000001</v>
       </c>
       <c r="E77">
         <f xml:space="preserve"> D77 - D74</f>
-        <v>1.1135880000000924</v>
+        <v>13.449240000001026</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.35">
@@ -8040,7 +8040,7 @@
         <v>14</v>
       </c>
       <c r="B78" s="1">
-        <v>97.836659999999995</v>
+        <v>176.33448000000001</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.35">
@@ -8048,7 +8048,7 @@
         <v>14</v>
       </c>
       <c r="B79" s="1">
-        <v>98.154827999999995</v>
+        <v>174.84011999999899</v>
       </c>
       <c r="D79" s="3" t="s">
         <v>16</v>
@@ -8062,15 +8062,15 @@
         <v>14</v>
       </c>
       <c r="B80" s="1">
-        <v>97.995744000000002</v>
+        <v>176.33448000000001</v>
       </c>
       <c r="D80">
         <f>STDEV(B66:B95)</f>
-        <v>0.81944990427676367</v>
+        <v>8.9981657723504718</v>
       </c>
       <c r="E80">
         <f xml:space="preserve"> (D80 / E68) * 100</f>
-        <v>0.82876515164997633</v>
+        <v>5.1968507297164015</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
@@ -8078,7 +8078,7 @@
         <v>14</v>
       </c>
       <c r="B81" s="1">
-        <v>99.109331999999995</v>
+        <v>176.33448000000001</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
@@ -8086,7 +8086,7 @@
         <v>14</v>
       </c>
       <c r="B82" s="1">
-        <v>97.677576000000002</v>
+        <v>176.33448000000001</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
@@ -8094,7 +8094,7 @@
         <v>14</v>
       </c>
       <c r="B83" s="1">
-        <v>98.154827999999995</v>
+        <v>176.33448000000001</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
@@ -8102,7 +8102,7 @@
         <v>14</v>
       </c>
       <c r="B84" s="1">
-        <v>98.313911999999902</v>
+        <v>176.33448000000001</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
@@ -8110,7 +8110,7 @@
         <v>14</v>
       </c>
       <c r="B85" s="1">
-        <v>99.268416000000002</v>
+        <v>176.33448000000001</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.35">
@@ -8118,7 +8118,7 @@
         <v>14</v>
       </c>
       <c r="B86" s="1">
-        <v>98.791163999999995</v>
+        <v>176.33448000000001</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.35">
@@ -8126,7 +8126,7 @@
         <v>14</v>
       </c>
       <c r="B87" s="1">
-        <v>99.268416000000002</v>
+        <v>176.33448000000001</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.35">
@@ -8134,7 +8134,7 @@
         <v>14</v>
       </c>
       <c r="B88" s="1">
-        <v>99.427499999999995</v>
+        <v>180.81755999999999</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.35">
@@ -8142,7 +8142,7 @@
         <v>14</v>
       </c>
       <c r="B89" s="1">
-        <v>98.472995999999995</v>
+        <v>179.32320000000001</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.35">
@@ -8150,7 +8150,7 @@
         <v>14</v>
       </c>
       <c r="B90" s="1">
-        <v>98.313911999999902</v>
+        <v>176.33448000000001</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.35">
@@ -8158,7 +8158,7 @@
         <v>14</v>
       </c>
       <c r="B91" s="1">
-        <v>99.745667999999895</v>
+        <v>174.84011999999899</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.35">
@@ -8166,7 +8166,7 @@
         <v>14</v>
       </c>
       <c r="B92" s="1">
-        <v>98.313911999999902</v>
+        <v>174.84011999999899</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.35">
@@ -8174,7 +8174,7 @@
         <v>14</v>
       </c>
       <c r="B93" s="1">
-        <v>99.427499999999995</v>
+        <v>189.78371999999999</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.35">
@@ -8182,7 +8182,7 @@
         <v>14</v>
       </c>
       <c r="B94" s="1">
-        <v>97.836659999999995</v>
+        <v>191.27807999999999</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.35">
@@ -8190,7 +8190,7 @@
         <v>14</v>
       </c>
       <c r="B95" s="1">
-        <v>98.632080000000002</v>
+        <v>191.27807999999999</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.35">
@@ -8206,7 +8206,7 @@
         <v>10</v>
       </c>
       <c r="B98" s="1">
-        <v>100.08669599999899</v>
+        <v>113.27525999999899</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.35">
@@ -8214,7 +8214,7 @@
         <v>10</v>
       </c>
       <c r="B99" s="1">
-        <v>101.197008</v>
+        <v>116.357579999999</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.35">
@@ -8222,7 +8222,7 @@
         <v>10</v>
       </c>
       <c r="B100" s="1">
-        <v>98.659152000000006</v>
+        <v>114.66230400000001</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.35">
@@ -8230,7 +8230,7 @@
         <v>10</v>
       </c>
       <c r="B101" s="1">
-        <v>98.024687999999998</v>
+        <v>114.970536</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.35">
@@ -8238,7 +8238,7 @@
         <v>10</v>
       </c>
       <c r="B102" s="1">
-        <v>98.341920000000002</v>
+        <v>114.199956</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.35">
@@ -8246,7 +8246,7 @@
         <v>10</v>
       </c>
       <c r="B103" s="1">
-        <v>96.914375999999905</v>
+        <v>115.278768</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.35">
@@ -8254,7 +8254,7 @@
         <v>10</v>
       </c>
       <c r="B104" s="1">
-        <v>97.231607999999994</v>
+        <v>115.89523199999999</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.35">
@@ -8262,7 +8262,7 @@
         <v>10</v>
       </c>
       <c r="B105" s="1">
-        <v>97.707455999999993</v>
+        <v>114.199956</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.35">
@@ -8270,7 +8270,7 @@
         <v>10</v>
       </c>
       <c r="B106" s="1">
-        <v>96.914375999999905</v>
+        <v>114.199956</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.35">
@@ -8278,7 +8278,7 @@
         <v>10</v>
       </c>
       <c r="B107" s="1">
-        <v>98.341920000000002</v>
+        <v>114.81641999999999</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.35">
@@ -8286,7 +8286,7 @@
         <v>10</v>
       </c>
       <c r="B108" s="1">
-        <v>97.707455999999993</v>
+        <v>114.508187999999</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.35">
@@ -8294,7 +8294,7 @@
         <v>10</v>
       </c>
       <c r="B109" s="1">
-        <v>98.817768000000001</v>
+        <v>123.2928</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.35">
@@ -8302,7 +8302,7 @@
         <v>10</v>
       </c>
       <c r="B110" s="1">
-        <v>97.707455999999993</v>
+        <v>115.432884</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.35">
@@ -8310,7 +8310,7 @@
         <v>10</v>
       </c>
       <c r="B111" s="1">
-        <v>97.390224000000003</v>
+        <v>113.58349200000001</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.35">
@@ -8318,7 +8318,7 @@
         <v>10</v>
       </c>
       <c r="B112" s="1">
-        <v>96.597144</v>
+        <v>113.73760799999999</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.35">
@@ -8326,7 +8326,7 @@
         <v>10</v>
       </c>
       <c r="B113" s="1">
-        <v>98.500535999999997</v>
+        <v>114.199956</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.35">
@@ -8334,7 +8334,7 @@
         <v>10</v>
       </c>
       <c r="B114" s="1">
-        <v>96.914375999999905</v>
+        <v>114.66230400000001</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.35">
@@ -8342,7 +8342,7 @@
         <v>10</v>
       </c>
       <c r="B115" s="1">
-        <v>97.707455999999993</v>
+        <v>114.199956</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.35">
@@ -8350,7 +8350,7 @@
         <v>10</v>
       </c>
       <c r="B116" s="1">
-        <v>96.914375999999905</v>
+        <v>116.357579999999</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.35">
@@ -8358,7 +8358,7 @@
         <v>10</v>
       </c>
       <c r="B117" s="1">
-        <v>97.231607999999994</v>
+        <v>133.00210799999999</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.35">
@@ -8366,7 +8366,7 @@
         <v>10</v>
       </c>
       <c r="B118" s="1">
-        <v>98.341920000000002</v>
+        <v>114.35407199999899</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.35">
@@ -8374,7 +8374,7 @@
         <v>10</v>
       </c>
       <c r="B119" s="1">
-        <v>97.707455999999993</v>
+        <v>114.66230400000001</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.35">
@@ -8382,7 +8382,7 @@
         <v>10</v>
       </c>
       <c r="B120" s="1">
-        <v>99.135000000000005</v>
+        <v>115.741115999999</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.35">
@@ -8390,7 +8390,7 @@
         <v>10</v>
       </c>
       <c r="B121" s="1">
-        <v>99.293615999999901</v>
+        <v>114.35407199999899</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.35">
@@ -8398,7 +8398,7 @@
         <v>10</v>
       </c>
       <c r="B122" s="1">
-        <v>97.390224000000003</v>
+        <v>113.891724</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.35">
@@ -8406,7 +8406,7 @@
         <v>10</v>
       </c>
       <c r="B123" s="1">
-        <v>97.231607999999994</v>
+        <v>113.891724</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.35">
@@ -8414,7 +8414,7 @@
         <v>10</v>
       </c>
       <c r="B124" s="1">
-        <v>97.707455999999993</v>
+        <v>114.508187999999</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.35">
@@ -8422,7 +8422,7 @@
         <v>10</v>
       </c>
       <c r="B125" s="1">
-        <v>97.548839999999998</v>
+        <v>113.891724</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.35">
@@ -8430,7 +8430,7 @@
         <v>10</v>
       </c>
       <c r="B126" s="1">
-        <v>98.976383999999996</v>
+        <v>113.27525999999899</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.35">
@@ -8438,7 +8438,7 @@
         <v>10</v>
       </c>
       <c r="B127" s="1">
-        <v>97.548839999999998</v>
+        <v>114.199956</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.35">
@@ -8446,7 +8446,7 @@
         <v>12</v>
       </c>
       <c r="B128" s="1">
-        <v>97.496424000000005</v>
+        <v>114.97082399999999</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.35">
@@ -8454,7 +8454,7 @@
         <v>12</v>
       </c>
       <c r="B129" s="1">
-        <v>98.450711999999996</v>
+        <v>117.633636</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.35">
@@ -8462,7 +8462,7 @@
         <v>12</v>
       </c>
       <c r="B130" s="1">
-        <v>99.245952000000003</v>
+        <v>134.23705200000001</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.35">
@@ -8470,7 +8470,7 @@
         <v>12</v>
       </c>
       <c r="B131" s="1">
-        <v>98.291663999999997</v>
+        <v>135.49014</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.35">
@@ -8478,7 +8478,7 @@
         <v>12</v>
       </c>
       <c r="B132" s="1">
-        <v>98.132615999999999</v>
+        <v>134.70695999999899</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.35">
@@ -8486,7 +8486,7 @@
         <v>12</v>
       </c>
       <c r="B133" s="1">
-        <v>99.564048</v>
+        <v>133.92377999999999</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.35">
@@ -8494,7 +8494,7 @@
         <v>12</v>
       </c>
       <c r="B134" s="1">
-        <v>98.768807999999893</v>
+        <v>134.863596</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.35">
@@ -8502,7 +8502,7 @@
         <v>12</v>
       </c>
       <c r="B135" s="1">
-        <v>97.973568</v>
+        <v>135.17686800000001</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.35">
@@ -8510,7 +8510,7 @@
         <v>12</v>
       </c>
       <c r="B136" s="1">
-        <v>98.768807999999893</v>
+        <v>134.70695999999899</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.35">
@@ -8518,7 +8518,7 @@
         <v>12</v>
       </c>
       <c r="B137" s="1">
-        <v>97.814520000000002</v>
+        <v>135.02023199999999</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.35">
@@ -8526,7 +8526,7 @@
         <v>12</v>
       </c>
       <c r="B138" s="1">
-        <v>97.814520000000002</v>
+        <v>135.64677599999999</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.35">
@@ -8534,7 +8534,7 @@
         <v>12</v>
       </c>
       <c r="B139" s="1">
-        <v>98.450711999999996</v>
+        <v>129.69460799999999</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.35">
@@ -8542,7 +8542,7 @@
         <v>12</v>
       </c>
       <c r="B140" s="1">
-        <v>97.973568</v>
+        <v>134.55032399999999</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.35">
@@ -8550,7 +8550,7 @@
         <v>12</v>
       </c>
       <c r="B141" s="1">
-        <v>97.496424000000005</v>
+        <v>134.863596</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.35">
@@ -8558,7 +8558,7 @@
         <v>12</v>
       </c>
       <c r="B142" s="1">
-        <v>99.086904000000004</v>
+        <v>134.23705200000001</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.35">
@@ -8566,7 +8566,7 @@
         <v>12</v>
       </c>
       <c r="B143" s="1">
-        <v>97.496424000000005</v>
+        <v>134.863596</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.35">
@@ -8574,7 +8574,7 @@
         <v>12</v>
       </c>
       <c r="B144" s="1">
-        <v>98.450711999999996</v>
+        <v>134.23705200000001</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.35">
@@ -8582,7 +8582,7 @@
         <v>12</v>
       </c>
       <c r="B145" s="1">
-        <v>97.655471999999904</v>
+        <v>135.49014</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.35">
@@ -8590,7 +8590,7 @@
         <v>12</v>
       </c>
       <c r="B146" s="1">
-        <v>97.973568</v>
+        <v>134.863596</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.35">
@@ -8598,7 +8598,7 @@
         <v>12</v>
       </c>
       <c r="B147" s="1">
-        <v>98.450711999999996</v>
+        <v>136.586592</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.35">
@@ -8606,7 +8606,7 @@
         <v>12</v>
       </c>
       <c r="B148" s="1">
-        <v>99.245952000000003</v>
+        <v>135.49014</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.35">
@@ -8614,7 +8614,7 @@
         <v>12</v>
       </c>
       <c r="B149" s="1">
-        <v>98.450711999999996</v>
+        <v>135.17686800000001</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.35">
@@ -8622,7 +8622,7 @@
         <v>12</v>
       </c>
       <c r="B150" s="1">
-        <v>97.019279999999995</v>
+        <v>124.838892</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.35">
@@ -8630,7 +8630,7 @@
         <v>12</v>
       </c>
       <c r="B151" s="1">
-        <v>98.291663999999997</v>
+        <v>135.80341200000001</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.35">
@@ -8638,7 +8638,7 @@
         <v>12</v>
       </c>
       <c r="B152" s="1">
-        <v>98.132615999999999</v>
+        <v>134.70695999999899</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.35">
@@ -8646,7 +8646,7 @@
         <v>12</v>
       </c>
       <c r="B153" s="1">
-        <v>97.973568</v>
+        <v>134.23705200000001</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.35">
@@ -8654,7 +8654,7 @@
         <v>12</v>
       </c>
       <c r="B154" s="1">
-        <v>97.019279999999995</v>
+        <v>134.863596</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.35">
@@ -8662,7 +8662,7 @@
         <v>12</v>
       </c>
       <c r="B155" s="1">
-        <v>97.973568</v>
+        <v>135.33350399999901</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.35">
@@ -8670,7 +8670,7 @@
         <v>12</v>
       </c>
       <c r="B156" s="1">
-        <v>100.20023999999999</v>
+        <v>135.64677599999999</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.35">
@@ -8678,7 +8678,7 @@
         <v>12</v>
       </c>
       <c r="B157" s="1">
-        <v>98.609759999999994</v>
+        <v>134.23705200000001</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.35">
@@ -8686,7 +8686,7 @@
         <v>14</v>
       </c>
       <c r="B158" s="1">
-        <v>100.70017199999999</v>
+        <v>159.89651999999899</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.35">
@@ -8694,7 +8694,7 @@
         <v>14</v>
       </c>
       <c r="B159" s="1">
-        <v>99.904752000000002</v>
+        <v>176.33448000000001</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.35">
@@ -8702,7 +8702,7 @@
         <v>14</v>
       </c>
       <c r="B160" s="1">
-        <v>99.745667999999895</v>
+        <v>162.88523999999899</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.35">
@@ -8710,7 +8710,7 @@
         <v>14</v>
       </c>
       <c r="B161" s="1">
-        <v>98.791163999999995</v>
+        <v>162.88523999999899</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.35">
@@ -8718,7 +8718,7 @@
         <v>14</v>
       </c>
       <c r="B162" s="1">
-        <v>98.632080000000002</v>
+        <v>162.88523999999899</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.35">
@@ -8726,7 +8726,7 @@
         <v>14</v>
       </c>
       <c r="B163" s="1">
-        <v>99.427499999999995</v>
+        <v>162.88523999999899</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.35">
@@ -8734,7 +8734,7 @@
         <v>14</v>
       </c>
       <c r="B164" s="1">
-        <v>97.359408000000002</v>
+        <v>162.88523999999899</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.35">
@@ -8742,7 +8742,7 @@
         <v>14</v>
       </c>
       <c r="B165" s="1">
-        <v>99.109331999999995</v>
+        <v>162.88523999999899</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.35">
@@ -8750,7 +8750,7 @@
         <v>14</v>
       </c>
       <c r="B166" s="1">
-        <v>99.586583999999903</v>
+        <v>162.88523999999899</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.35">
@@ -8758,7 +8758,7 @@
         <v>14</v>
       </c>
       <c r="B167" s="1">
-        <v>99.904752000000002</v>
+        <v>162.88523999999899</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.35">
@@ -8766,7 +8766,7 @@
         <v>14</v>
       </c>
       <c r="B168" s="1">
-        <v>98.313911999999902</v>
+        <v>174.84011999999899</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.35">
@@ -8774,7 +8774,7 @@
         <v>14</v>
       </c>
       <c r="B169" s="1">
-        <v>100.06383599999999</v>
+        <v>159.89651999999899</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.35">
@@ -8782,7 +8782,7 @@
         <v>14</v>
       </c>
       <c r="B170" s="1">
-        <v>97.836659999999995</v>
+        <v>176.33448000000001</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.35">
@@ -8790,7 +8790,7 @@
         <v>14</v>
       </c>
       <c r="B171" s="1">
-        <v>98.154827999999995</v>
+        <v>174.84011999999899</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.35">
@@ -8798,7 +8798,7 @@
         <v>14</v>
       </c>
       <c r="B172" s="1">
-        <v>97.995744000000002</v>
+        <v>176.33448000000001</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.35">
@@ -8806,7 +8806,7 @@
         <v>14</v>
       </c>
       <c r="B173" s="1">
-        <v>99.109331999999995</v>
+        <v>176.33448000000001</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.35">
@@ -8814,7 +8814,7 @@
         <v>14</v>
       </c>
       <c r="B174" s="1">
-        <v>97.677576000000002</v>
+        <v>176.33448000000001</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.35">
@@ -8822,7 +8822,7 @@
         <v>14</v>
       </c>
       <c r="B175" s="1">
-        <v>98.154827999999995</v>
+        <v>176.33448000000001</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.35">
@@ -8830,7 +8830,7 @@
         <v>14</v>
       </c>
       <c r="B176" s="1">
-        <v>98.313911999999902</v>
+        <v>176.33448000000001</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.35">
@@ -8838,7 +8838,7 @@
         <v>14</v>
       </c>
       <c r="B177" s="1">
-        <v>99.268416000000002</v>
+        <v>176.33448000000001</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.35">
@@ -8846,7 +8846,7 @@
         <v>14</v>
       </c>
       <c r="B178" s="1">
-        <v>98.791163999999995</v>
+        <v>176.33448000000001</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.35">
@@ -8854,7 +8854,7 @@
         <v>14</v>
       </c>
       <c r="B179" s="1">
-        <v>99.268416000000002</v>
+        <v>176.33448000000001</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.35">
@@ -8862,7 +8862,7 @@
         <v>14</v>
       </c>
       <c r="B180" s="1">
-        <v>99.427499999999995</v>
+        <v>180.81755999999999</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.35">
@@ -8870,7 +8870,7 @@
         <v>14</v>
       </c>
       <c r="B181" s="1">
-        <v>98.472995999999995</v>
+        <v>179.32320000000001</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.35">
@@ -8878,7 +8878,7 @@
         <v>14</v>
       </c>
       <c r="B182" s="1">
-        <v>98.313911999999902</v>
+        <v>176.33448000000001</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.35">
@@ -8886,7 +8886,7 @@
         <v>14</v>
       </c>
       <c r="B183" s="1">
-        <v>99.745667999999895</v>
+        <v>174.84011999999899</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.35">
@@ -8894,7 +8894,7 @@
         <v>14</v>
       </c>
       <c r="B184" s="1">
-        <v>98.313911999999902</v>
+        <v>174.84011999999899</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.35">
@@ -8902,7 +8902,7 @@
         <v>14</v>
       </c>
       <c r="B185" s="1">
-        <v>99.427499999999995</v>
+        <v>189.78371999999999</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.35">
@@ -8910,7 +8910,7 @@
         <v>14</v>
       </c>
       <c r="B186" s="1">
-        <v>97.836659999999995</v>
+        <v>191.27807999999999</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.35">
@@ -8918,7 +8918,7 @@
         <v>14</v>
       </c>
       <c r="B187" s="1">
-        <v>98.632080000000002</v>
+        <v>191.27807999999999</v>
       </c>
     </row>
   </sheetData>

--- a/Processed Results/Nexus 5X/GPS/GPS - Processed.xlsx
+++ b/Processed Results/Nexus 5X/GPS/GPS - Processed.xlsx
@@ -8,26 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luuk1\Desktop\Bachelor Project\BachelorProject\Processed Results\Nexus 5X\GPS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4E8DA2E-69EB-48EC-B553-EEA6A09DCE04}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80AD5789-91C7-4984-B027-6E6CC607EBA1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="130" yWindow="120" windowWidth="9990" windowHeight="9830" xr2:uid="{BD96B59B-3C3E-42C2-91CD-DAE8785DB1E9}"/>
+    <workbookView xWindow="40" yWindow="470" windowWidth="9990" windowHeight="9830" xr2:uid="{BD96B59B-3C3E-42C2-91CD-DAE8785DB1E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Blad1!$A$34:$A$63</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Blad1!$B$33</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Blad1!$A$98:$A$187</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Blad1!$B$98:$B$187</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Blad1!$B$34:$B$63</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Blad1!$A$98:$A$187</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Blad1!$B$98:$B$187</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Blad1!$A$66:$A$95</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Blad1!$B$65</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Blad1!$B$66:$B$95</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Blad1!$A$2:$A$31</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Blad1!$B$2:$B$31</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Blad1!$A$66:$A$95</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Blad1!$B$65</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Blad1!$B$66:$B$95</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Blad1!$A$34:$A$63</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Blad1!$B$33</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Blad1!$B$34:$B$63</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Blad1!$A$2:$A$31</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Blad1!$B$2:$B$31</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Blad1!$A$98:$A$187</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Blad1!$B$98:$B$187</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="20">
   <si>
     <t>Mean line</t>
   </si>
@@ -101,6 +99,12 @@
   </si>
   <si>
     <t>Relative std</t>
+  </si>
+  <si>
+    <t>Mean increase</t>
+  </si>
+  <si>
+    <t>Median increase</t>
   </si>
 </sst>
 </file>
@@ -2098,10 +2102,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.8</cx:f>
+        <cx:f>_xlchart.v1.6</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.9</cx:f>
+        <cx:f>_xlchart.v1.7</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -2220,10 +2224,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.3</cx:f>
+        <cx:f>_xlchart.v1.8</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.4</cx:f>
+        <cx:f>_xlchart.v1.9</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -2341,10 +2345,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.0</cx:f>
+        <cx:f>_xlchart.v1.3</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.2</cx:f>
+        <cx:f>_xlchart.v1.5</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -2382,7 +2386,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{3F5A16A3-6E4C-4475-A634-1322A70DC713}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.1</cx:f>
+              <cx:f>_xlchart.v1.4</cx:f>
               <cx:v>Medium_frequency</cx:v>
             </cx:txData>
           </cx:tx>
@@ -2469,10 +2473,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.5</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.7</cx:f>
+        <cx:f>_xlchart.v1.2</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -2510,7 +2514,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{138ACD3C-CAEA-4AEF-B3DF-B982F1EA92CC}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.6</cx:f>
+              <cx:f>_xlchart.v1.1</cx:f>
               <cx:v>High_frequency</cx:v>
             </cx:txData>
           </cx:tx>
@@ -7202,10 +7206,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78FE0459-F6C0-45BE-AD60-56F63431C3F0}">
-  <dimension ref="A1:E187"/>
+  <dimension ref="A1:F187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B99" activeCellId="1" sqref="B98 B99:B187"/>
+    <sheetView tabSelected="1" topLeftCell="A96" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E117" sqref="E117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7419,7 +7423,7 @@
         <v>3.2597396104896079</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -7427,23 +7431,37 @@
         <v>114.199956</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>10</v>
       </c>
       <c r="B18" s="1">
         <v>114.66230400000001</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D18" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>10</v>
       </c>
       <c r="B19" s="1">
         <v>114.199956</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D19">
+        <f xml:space="preserve"> ((E3 / 114.202998) * 100) - 100</f>
+        <v>1.0949229196239685</v>
+      </c>
+      <c r="F19">
+        <f xml:space="preserve"> ((E10 / 113.658804) * 100) - 100</f>
+        <v>0.67951269309413931</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>10</v>
       </c>
@@ -7451,7 +7469,7 @@
         <v>116.357579999999</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -7459,7 +7477,7 @@
         <v>133.00210799999999</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>10</v>
       </c>
@@ -7467,7 +7485,7 @@
         <v>114.35407199999899</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>10</v>
       </c>
@@ -7475,7 +7493,7 @@
         <v>114.66230400000001</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>10</v>
       </c>
@@ -7483,7 +7501,7 @@
         <v>115.741115999999</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>10</v>
       </c>
@@ -7491,7 +7509,7 @@
         <v>114.35407199999899</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>10</v>
       </c>
@@ -7499,7 +7517,7 @@
         <v>113.891724</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>10</v>
       </c>
@@ -7507,7 +7525,7 @@
         <v>113.891724</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>10</v>
       </c>
@@ -7515,7 +7533,7 @@
         <v>114.508187999999</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>10</v>
       </c>
@@ -7523,7 +7541,7 @@
         <v>113.891724</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>10</v>
       </c>
@@ -7531,7 +7549,7 @@
         <v>113.27525999999899</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>10</v>
       </c>
@@ -7539,7 +7557,7 @@
         <v>114.199956</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B32" s="2"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
@@ -7746,7 +7764,7 @@
         <v>3.8097314808119371</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>12</v>
       </c>
@@ -7754,23 +7772,37 @@
         <v>134.863596</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>12</v>
       </c>
       <c r="B50" s="1">
         <v>134.23705200000001</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D50" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>12</v>
       </c>
       <c r="B51" s="1">
         <v>135.49014</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D51">
+        <f xml:space="preserve"> ((E35 / 114.202998) * 100) - 100</f>
+        <v>16.637265862319907</v>
+      </c>
+      <c r="F51">
+        <f xml:space="preserve"> ((E42 / 113.658804) * 100) - 100</f>
+        <v>18.656532757462415</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>12</v>
       </c>
@@ -7778,7 +7810,7 @@
         <v>134.863596</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>12</v>
       </c>
@@ -7786,7 +7818,7 @@
         <v>136.586592</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>12</v>
       </c>
@@ -7794,7 +7826,7 @@
         <v>135.49014</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>12</v>
       </c>
@@ -7802,7 +7834,7 @@
         <v>135.17686800000001</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>12</v>
       </c>
@@ -7810,7 +7842,7 @@
         <v>124.838892</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>12</v>
       </c>
@@ -7818,7 +7850,7 @@
         <v>135.80341200000001</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>12</v>
       </c>
@@ -7826,7 +7858,7 @@
         <v>134.70695999999899</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>12</v>
       </c>
@@ -7834,7 +7866,7 @@
         <v>134.23705200000001</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>12</v>
       </c>
@@ -7842,7 +7874,7 @@
         <v>134.863596</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>12</v>
       </c>
@@ -7850,7 +7882,7 @@
         <v>135.33350399999901</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>12</v>
       </c>
@@ -7858,7 +7890,7 @@
         <v>135.64677599999999</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>12</v>
       </c>
@@ -7866,7 +7898,7 @@
         <v>134.23705200000001</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B64" s="2"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.35">
@@ -8073,7 +8105,7 @@
         <v>5.1968507297164015</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>14</v>
       </c>
@@ -8081,23 +8113,37 @@
         <v>176.33448000000001</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>14</v>
       </c>
       <c r="B82" s="1">
         <v>176.33448000000001</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D82" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F82" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>14</v>
       </c>
       <c r="B83" s="1">
         <v>176.33448000000001</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D83">
+        <f xml:space="preserve"> ((E67 / 114.202998) * 100) - 100</f>
+        <v>51.612930511683686</v>
+      </c>
+      <c r="F83">
+        <f xml:space="preserve"> ((E74 / 113.658804) * 100) - 100</f>
+        <v>55.143705365754158</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>14</v>
       </c>
@@ -8105,7 +8151,7 @@
         <v>176.33448000000001</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>14</v>
       </c>
@@ -8113,7 +8159,7 @@
         <v>176.33448000000001</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>14</v>
       </c>
@@ -8121,7 +8167,7 @@
         <v>176.33448000000001</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>14</v>
       </c>
@@ -8129,7 +8175,7 @@
         <v>176.33448000000001</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>14</v>
       </c>
@@ -8137,7 +8183,7 @@
         <v>180.81755999999999</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>14</v>
       </c>
@@ -8145,7 +8191,7 @@
         <v>179.32320000000001</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>14</v>
       </c>
@@ -8153,7 +8199,7 @@
         <v>176.33448000000001</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>14</v>
       </c>
@@ -8161,7 +8207,7 @@
         <v>174.84011999999899</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>14</v>
       </c>
@@ -8169,7 +8215,7 @@
         <v>174.84011999999899</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>14</v>
       </c>
@@ -8177,7 +8223,7 @@
         <v>189.78371999999999</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>14</v>
       </c>
@@ -8185,7 +8231,7 @@
         <v>191.27807999999999</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>14</v>
       </c>
@@ -8193,7 +8239,7 @@
         <v>191.27807999999999</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B96" s="2"/>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.35">
@@ -8321,23 +8367,37 @@
         <v>113.73760799999999</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>10</v>
       </c>
       <c r="B113" s="1">
         <v>114.199956</v>
       </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D113" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F113" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>10</v>
       </c>
       <c r="B114" s="1">
         <v>114.66230400000001</v>
       </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D114">
+        <f xml:space="preserve"> (D19 + D51 + D83) / 3</f>
+        <v>23.115039764542519</v>
+      </c>
+      <c r="F114">
+        <f xml:space="preserve"> (F19 + F51 + F83) / 3</f>
+        <v>24.826583605436905</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>10</v>
       </c>
@@ -8345,7 +8405,7 @@
         <v>114.199956</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>10</v>
       </c>
@@ -8353,7 +8413,7 @@
         <v>116.357579999999</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>10</v>
       </c>
@@ -8361,7 +8421,7 @@
         <v>133.00210799999999</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>10</v>
       </c>
@@ -8369,7 +8429,7 @@
         <v>114.35407199999899</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>10</v>
       </c>
@@ -8377,7 +8437,7 @@
         <v>114.66230400000001</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>10</v>
       </c>
@@ -8385,7 +8445,7 @@
         <v>115.741115999999</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>10</v>
       </c>
@@ -8393,7 +8453,7 @@
         <v>114.35407199999899</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>10</v>
       </c>
@@ -8401,7 +8461,7 @@
         <v>113.891724</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>10</v>
       </c>
@@ -8409,7 +8469,7 @@
         <v>113.891724</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>10</v>
       </c>
@@ -8417,7 +8477,7 @@
         <v>114.508187999999</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>10</v>
       </c>
@@ -8425,7 +8485,7 @@
         <v>113.891724</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>10</v>
       </c>
@@ -8433,7 +8493,7 @@
         <v>113.27525999999899</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>10</v>
       </c>
@@ -8441,7 +8501,7 @@
         <v>114.199956</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>12</v>
       </c>
